--- a/data/georgia_census/racha/oni/healthcare_staff.xlsx
+++ b/data/georgia_census/racha/oni/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32AAB002-6EAE-4945-A183-3A1C5C8E01FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E3DC9F-0F72-4F3F-AE98-2EBBF72A30C4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3BEC6B-5C04-42FE-946E-763EEA367269}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B3956D1-2948-4977-9C8A-CC6FF5289646}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E8D427-B84B-43B6-8FDA-ABDE04AF6FB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DEC8FD-A0A7-47F7-A87D-942C6DBBE078}"/>
 </file>